--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -29,11 +34,14 @@
   <connection id="4" name="BuffTemplate_table3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\xianCardData\define\template\excel\BuffTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="5" name="BuffTemplate_table4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\BuffTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合结束获得护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_jinjia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,13 +124,21 @@
   </si>
   <si>
     <t>buff_dimai</t>
+  </si>
+  <si>
+    <t>触发参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,9 +200,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -206,34 +211,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -252,6 +271,8 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nId" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTrigger" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTriggerParam1" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTriggerParam2" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectA" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iBout" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szImg" form="unqualified"/>
@@ -269,43 +290,45 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="4" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
+  <Map ID="5" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H5" tableType="xml" totalsRowShown="0" connectionId="4">
-  <autoFilter ref="A1:H5">
-    <filterColumn colId="4"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-  </autoFilter>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J5" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="A1:J5"/>
+  <tableColumns count="10">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="4" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="4" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataDiff" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="3">
-      <xmlColumnPr mapId="4" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nId" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="buff类型" dataDxfId="2">
-      <xmlColumnPr mapId="4" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nType" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="nTrigger" name="触发类型" dataDxfId="1">
-      <xmlColumnPr mapId="4" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTrigger" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataDiff" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="5">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="nType" name="buff类型" dataDxfId="4">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nType" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="nTrigger" name="触发类型" dataDxfId="3">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTrigger" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="nTriggerParam1" name="触发参数1" dataDxfId="1">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam1" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="nTriggerParam2" name="触发参数2" dataDxfId="0">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="iEffectA" name="效果值A">
-      <xmlColumnPr mapId="4" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iEffectA" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="iBout" name="持续回合" dataDxfId="0">
-      <xmlColumnPr mapId="4" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iBout" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iEffectA" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="iBout" name="持续回合" dataDxfId="2">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iBout" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="szImg" name="图片名">
-      <xmlColumnPr mapId="4" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szImg" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szImg" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -355,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,9 +410,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,6 +445,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,131 +621,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+      <c r="E2" s="1">
+        <v>1</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="6">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5">
         <v>-1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="7">
+      <c r="I3" s="6">
         <v>-1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="I4" s="6">
         <v>-1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="7">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
         <v>-1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -733,19 +779,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -756,18 +802,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -776,12 +822,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -790,18 +836,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -812,12 +858,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -16,7 +16,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>触发参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,13 +224,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -297,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J5" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="A1:J5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J6" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -315,16 +319,16 @@
     <tableColumn id="8" uniqueName="nTrigger" name="触发类型" dataDxfId="3">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTrigger" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="nTriggerParam1" name="触发参数1" dataDxfId="1">
+    <tableColumn id="9" uniqueName="nTriggerParam1" name="触发参数1" dataDxfId="2">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="nTriggerParam2" name="触发参数2" dataDxfId="0">
+    <tableColumn id="10" uniqueName="nTriggerParam2" name="触发参数2" dataDxfId="1">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="iEffectA" name="效果值A">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iEffectA" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="iBout" name="持续回合" dataDxfId="2">
+    <tableColumn id="6" uniqueName="iBout" name="持续回合" dataDxfId="0">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iBout" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="szImg" name="图片名">
@@ -622,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,6 +773,27 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,14 +130,22 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_nodraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法抽卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +227,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -236,10 +239,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,10 +417,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +451,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -645,7 +646,7 @@
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -677,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5">
@@ -701,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6">
@@ -725,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6">
@@ -749,7 +750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="6">
@@ -773,7 +774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -788,8 +789,11 @@
       <c r="I6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -804,19 +808,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -827,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3">
         <v>1</v>
       </c>
@@ -847,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>2</v>
       </c>
@@ -861,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3</v>
       </c>
@@ -873,6 +877,14 @@
       </c>
       <c r="F5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -883,12 +895,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,14 +143,30 @@
   </si>
   <si>
     <t>无法抽卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲不消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1把幻剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,7 +248,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -239,10 +260,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -304,8 +325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J6" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="A1:J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:K7" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="B1:K7"/>
   <tableColumns count="10">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -385,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,9 +438,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,6 +473,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,177 +649,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
         <v>50</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>-1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>-1</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
-      <c r="C4" s="6">
+      <c r="C4" s="3"/>
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
         <v>4</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>-1</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="6">
+      <c r="C5" s="3"/>
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>-1</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="C6" s="4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="4">
+      <c r="H6" s="1"/>
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>101</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -808,19 +854,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -831,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -851,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -865,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -879,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>4</v>
       </c>
@@ -895,12 +941,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,14 +154,18 @@
   </si>
   <si>
     <t>1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_huanjian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +247,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -260,10 +259,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,10 +437,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +471,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -649,14 +646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -666,10 +663,10 @@
     <col min="7" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -701,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -725,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -749,7 +746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -773,7 +770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -800,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -822,7 +819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -842,6 +839,9 @@
       </c>
       <c r="J7" s="6">
         <v>-1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -854,19 +854,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3">
         <v>1</v>
       </c>
@@ -897,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>2</v>
       </c>
@@ -911,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3</v>
       </c>
@@ -925,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>4</v>
       </c>
@@ -941,12 +941,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,14 +163,22 @@
   </si>
   <si>
     <t>buff_huanjian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +260,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -259,10 +272,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -324,8 +337,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:K7" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="B1:K7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:K8" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="B1:K8"/>
   <tableColumns count="10">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -405,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,9 +450,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,6 +485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -666,7 +681,7 @@
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -698,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -722,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -746,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -770,7 +785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -797,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -819,7 +834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -842,6 +857,28 @@
       </c>
       <c r="K7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -854,19 +891,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -877,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -897,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -911,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -925,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>4</v>
       </c>
@@ -941,12 +978,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,14 +166,18 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_multi_shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +259,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -272,10 +271,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,10 +449,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,14 +658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -678,10 +675,10 @@
     <col min="7" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -713,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -737,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -761,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -785,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -812,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -834,7 +831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -859,7 +856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -879,6 +876,9 @@
       </c>
       <c r="J8" s="4">
         <v>-1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -891,19 +891,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -914,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3">
         <v>1</v>
       </c>
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>2</v>
       </c>
@@ -948,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3</v>
       </c>
@@ -962,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>4</v>
       </c>
@@ -978,12 +978,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -32,11 +32,14 @@
   <connection id="5" name="BuffTemplate_table4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\BuffTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="6" name="BuffTemplate_table5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\xianCardData\define\template\excel\BuffTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +173,56 @@
   </si>
   <si>
     <t>buff_multi_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对攻击者造成等同于护甲减少值一半的伤害</t>
+  </si>
+  <si>
+    <t>金甲阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合结束获得护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地脉阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲不在回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合不能再抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑</t>
+  </si>
+  <si>
+    <t>多重防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时获得护甲，当受到攻击造成伤害时，护甲上限减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤的幻剑，可以被其他卡牌使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +310,13 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -291,7 +350,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -308,6 +367,8 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nDataExcept" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nDataDiff" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nId" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szName" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szDesc" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTrigger" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTriggerParam1" form="unqualified"/>
@@ -329,45 +390,54 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="5" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  <Map ID="6" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:K8" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="B1:K8"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M8" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="B1:M8">
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="5">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="7">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="buff类型" dataDxfId="4">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="11" uniqueName="szName" name="名字" dataDxfId="1">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nTrigger" name="触发类型" dataDxfId="3">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTrigger" xmlDataType="string"/>
+    <tableColumn id="12" uniqueName="szDesc" name="描述" dataDxfId="0">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szDesc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="nTriggerParam1" name="触发参数1" dataDxfId="2">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam1" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="nType" name="buff类型" dataDxfId="6">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="nTriggerParam2" name="触发参数2" dataDxfId="1">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam2" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nTrigger" name="触发类型" dataDxfId="5">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTrigger" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="nTriggerParam1" name="触发参数1" dataDxfId="4">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam1" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="nTriggerParam2" name="触发参数2" dataDxfId="3">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="iEffectA" name="效果值A">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iEffectA" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iEffectA" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="iBout" name="持续回合" dataDxfId="0">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iBout" xmlDataType="string"/>
+    <tableColumn id="6" uniqueName="iBout" name="持续回合" dataDxfId="2">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iBout" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="szImg" name="图片名">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szImg" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szImg" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -659,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -670,15 +740,17 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -689,100 +761,124 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
         <v>50</v>
       </c>
-      <c r="J2" s="5">
+      <c r="L2" s="5">
         <v>-1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="6">
+      <c r="L3" s="6">
         <v>-1</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>4</v>
       </c>
-      <c r="J4" s="6">
+      <c r="L4" s="6">
         <v>-1</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -791,93 +887,124 @@
       <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="L5" s="6">
         <v>-1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="J6" s="4">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5">
         <v>101</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="6">
+      <c r="L7" s="6">
         <v>-1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="5">
         <v>-1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,7 +264,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -271,10 +276,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -336,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:K8" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="B1:K8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:K11" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="B1:K11"/>
   <tableColumns count="10">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -417,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +454,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,6 +489,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,16 +665,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="4" bestFit="1" customWidth="1"/>
@@ -678,7 +686,7 @@
     <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -710,7 +718,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="str">
+        <f>"护甲反伤"&amp;I2&amp;"%"</f>
+        <v>护甲反伤50%</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -734,7 +746,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="str">
+        <f>"回合结束获得"&amp;I3&amp;"护甲"</f>
+        <v>回合结束获得3护甲</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -758,7 +774,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="str">
+        <f>"回合结束获得"&amp;I4&amp;"护甲"</f>
+        <v>回合结束获得4护甲</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -782,7 +802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -809,7 +829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -831,7 +851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -856,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -881,29 +901,99 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="str">
+        <f>"虚弱（攻击减少"&amp;I9&amp;"%）"&amp;J9&amp;"回合"</f>
+        <v>虚弱（攻击减少25%）1回合</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="str">
+        <f>"易伤(受到伤害增加"&amp;I10&amp;"%)"&amp;J10&amp;"回合"</f>
+        <v>易伤(受到伤害增加50%)1回合</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="str">
+        <f>"脆弱(增加护甲减少"&amp;I11&amp;"%)"&amp;J11&amp;"回合"</f>
+        <v>脆弱(增加护甲减少25%)1回合</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -914,7 +1004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -934,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -948,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -962,7 +1052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>4</v>
       </c>
@@ -978,12 +1068,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,13 +252,24 @@
   <si>
     <t>攻击造成的伤害减少25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_cuiruo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yishang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xuruo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,7 +351,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -357,16 +363,16 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,10 +555,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,7 +589,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -760,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -782,7 +786,7 @@
     <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -820,7 +824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -850,7 +854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -880,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -910,7 +914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -943,7 +947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -974,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" t="str">
         <f>"虚弱（攻击减少"&amp;K9&amp;"%）"&amp;L9&amp;"回合"</f>
         <v>虚弱（攻击减少25%）1回合</v>
@@ -1068,9 +1072,11 @@
       <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="str">
         <f>"易伤(受到伤害增加"&amp;K10&amp;"%)"&amp;L10&amp;"回合"</f>
         <v>易伤(受到伤害增加50%)1回合</v>
@@ -1098,9 +1104,11 @@
       <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="str">
         <f>"脆弱(增加护甲减少"&amp;K11&amp;"%)"&amp;L11&amp;"回合"</f>
         <v>脆弱(增加护甲减少25%)1回合</v>
@@ -1128,7 +1136,9 @@
       <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,19 +1150,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1183,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1197,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1211,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1227,12 +1237,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,13 +268,25 @@
   </si>
   <si>
     <t>buff_xuruo</t>
+  </si>
+  <si>
+    <t>充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +368,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -363,16 +380,16 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,8 +453,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M11" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="B1:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M12" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="B1:M12"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -523,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,9 +572,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,6 +607,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -764,14 +783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -786,7 +805,7 @@
     <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -824,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -854,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -884,7 +903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -914,7 +933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -947,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -978,7 +997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1044,7 +1063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>"虚弱（攻击减少"&amp;K9&amp;"%）"&amp;L9&amp;"回合"</f>
         <v>虚弱（攻击减少25%）1回合</v>
@@ -1076,7 +1095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>"易伤(受到伤害增加"&amp;K10&amp;"%)"&amp;L10&amp;"回合"</f>
         <v>易伤(受到伤害增加50%)1回合</v>
@@ -1108,7 +1127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>"脆弱(增加护甲减少"&amp;K11&amp;"%)"&amp;L11&amp;"回合"</f>
         <v>脆弱(增加护甲减少25%)1回合</v>
@@ -1139,6 +1158,36 @@
       <c r="M11" s="1" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" t="str">
+        <f>"回合开始时，获得"&amp;K12&amp;"费,"&amp;L12&amp;"回合"</f>
+        <v>回合开始时，获得1费,1回合</v>
+      </c>
+      <c r="D12" s="4">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1150,19 +1199,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1173,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1193,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1207,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1221,7 +1270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1237,12 +1286,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +791,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A12" sqref="A12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,8 +1016,8 @@
       <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="5">
-        <v>101</v>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>28</v>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,14 +274,18 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_lianqi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +367,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -380,16 +379,16 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,7 +539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,10 +571,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,7 +605,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,14 +780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -805,7 +802,7 @@
     <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -843,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -873,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -903,7 +900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -933,7 +930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -966,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -997,7 +994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1030,7 +1027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1063,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" t="str">
         <f>"虚弱（攻击减少"&amp;K9&amp;"%）"&amp;L9&amp;"回合"</f>
         <v>虚弱（攻击减少25%）1回合</v>
@@ -1095,7 +1092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" t="str">
         <f>"易伤(受到伤害增加"&amp;K10&amp;"%)"&amp;L10&amp;"回合"</f>
         <v>易伤(受到伤害增加50%)1回合</v>
@@ -1127,7 +1124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" t="str">
         <f>"脆弱(增加护甲减少"&amp;K11&amp;"%)"&amp;L11&amp;"回合"</f>
         <v>脆弱(增加护甲减少25%)1回合</v>
@@ -1159,7 +1156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" t="str">
         <f>"回合开始时，获得"&amp;K12&amp;"费,"&amp;L12&amp;"回合"</f>
         <v>回合开始时，获得1费,1回合</v>
@@ -1187,7 +1184,9 @@
       <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,19 +1198,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1286,12 +1285,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -284,8 +289,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,7 +372,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -379,16 +384,16 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,9 +576,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,6 +611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -780,14 +787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -802,7 +809,7 @@
     <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -840,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -870,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -900,7 +907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -930,7 +937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -963,7 +970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -994,7 +1001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>"虚弱（攻击减少"&amp;K9&amp;"%）"&amp;L9&amp;"回合"</f>
         <v>虚弱（攻击减少25%）1回合</v>
@@ -1092,7 +1099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>"易伤(受到伤害增加"&amp;K10&amp;"%)"&amp;L10&amp;"回合"</f>
         <v>易伤(受到伤害增加50%)1回合</v>
@@ -1124,7 +1131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>"脆弱(增加护甲减少"&amp;K11&amp;"%)"&amp;L11&amp;"回合"</f>
         <v>脆弱(增加护甲减少25%)1回合</v>
@@ -1156,7 +1163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>"回合开始时，获得"&amp;K12&amp;"费,"&amp;L12&amp;"回合"</f>
         <v>回合开始时，获得1费,1回合</v>
@@ -1191,26 +1198,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1221,7 +1229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1255,7 +1263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1269,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1285,12 +1293,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -40,11 +40,14 @@
   <connection id="6" name="BuffTemplate_table5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\xianCardData\define\template\excel\BuffTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="7" name="BuffTemplate_table6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\BuffTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +286,22 @@
   </si>
   <si>
     <t>buff_lianqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑天引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果值B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +429,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -434,6 +453,7 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTriggerParam1" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTriggerParam2" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectA" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectB" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iBout" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szImg" form="unqualified"/>
                             </xsd:sequence>
@@ -450,51 +470,54 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="6" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  <Map ID="7" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M12" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="B1:M12"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:N13" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="B1:N13"/>
+  <tableColumns count="13">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="7">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nId" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="szName" name="名字" dataDxfId="6">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szName" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="szDesc" name="描述" dataDxfId="5">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szDesc" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szDesc" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="nType" name="buff类型" dataDxfId="4">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nType" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="nTrigger" name="触发类型" dataDxfId="3">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTrigger" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTrigger" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="nTriggerParam1" name="触发参数1" dataDxfId="2">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam1" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam1" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="nTriggerParam2" name="触发参数2" dataDxfId="1">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam2" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/nTriggerParam2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="iEffectA" name="效果值A">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iEffectA" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iEffectA" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="iEffectB" name="效果值B">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iEffectB" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="iBout" name="持续回合" dataDxfId="0">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iBout" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/iBout" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="szImg" name="图片名">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szImg" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_BuffTemplate/entry/szImg" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -788,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -804,12 +827,12 @@
     <col min="7" max="7" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -840,14 +863,17 @@
       <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5">
@@ -870,14 +896,15 @@
       <c r="K2" s="1">
         <v>50</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="1"/>
+      <c r="M2" s="5">
         <v>-1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
@@ -900,14 +927,15 @@
       <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3"/>
+      <c r="M3" s="6">
         <v>-1</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
@@ -930,14 +958,15 @@
       <c r="K4" s="3">
         <v>4</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3"/>
+      <c r="M4" s="6">
         <v>-1</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -963,14 +992,15 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3"/>
+      <c r="M5" s="6">
         <v>-1</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -994,21 +1024,22 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5">
-        <v>6</v>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>43</v>
@@ -1027,14 +1058,15 @@
       <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="1"/>
+      <c r="M7" s="6">
         <v>-1</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1060,28 +1092,31 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="1"/>
+      <c r="M8" s="5">
         <v>-1</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
-        <f>"虚弱（攻击减少"&amp;K9&amp;"%）"&amp;L9&amp;"回合"</f>
+        <f>"虚弱（攻击减少"&amp;K9&amp;"%）"&amp;M9&amp;"回合"</f>
         <v>虚弱（攻击减少25%）1回合</v>
       </c>
-      <c r="D9" s="4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1089,31 +1124,34 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>25</v>
       </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
-        <f>"易伤(受到伤害增加"&amp;K10&amp;"%)"&amp;L10&amp;"回合"</f>
+        <f>"易伤(受到伤害增加"&amp;K10&amp;"%)"&amp;M10&amp;"回合"</f>
         <v>易伤(受到伤害增加50%)1回合</v>
       </c>
-      <c r="D10" s="4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1121,31 +1159,34 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>50</v>
       </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" s="1"/>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
-        <f>"脆弱(增加护甲减少"&amp;K11&amp;"%)"&amp;L11&amp;"回合"</f>
+        <f>"脆弱(增加护甲减少"&amp;K11&amp;"%)"&amp;M11&amp;"回合"</f>
         <v>脆弱(增加护甲减少25%)1回合</v>
       </c>
-      <c r="D11" s="4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1153,31 +1194,34 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>25</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="L11" s="1"/>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
-        <f>"回合开始时，获得"&amp;K12&amp;"费,"&amp;L12&amp;"回合"</f>
+        <f>"回合开始时，获得"&amp;K12&amp;"费,"&amp;M12&amp;"回合"</f>
         <v>回合开始时，获得1费,1回合</v>
       </c>
-      <c r="D12" s="4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1185,15 +1229,52 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f>"回合开始时，获得"&amp;K13&amp;"把幻剑"</f>
+        <v>回合开始时，获得1把幻剑</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>"回合开始时，获得"&amp;K13&amp;"把幻剑"</f>
+        <v>回合开始时，获得1把幻剑</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6</v>
+      </c>
+      <c r="M13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/Buff模板表.xlsx
+++ b/excel/Buff模板表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +826,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1116,8 +1128,8 @@
       <c r="F9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="5">
-        <v>6</v>
+      <c r="G9" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>47</v>
@@ -1151,8 +1163,8 @@
       <c r="F10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="5">
-        <v>7</v>
+      <c r="G10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>47</v>
@@ -1186,8 +1198,8 @@
       <c r="F11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="5">
-        <v>8</v>
+      <c r="G11" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>23</v>
